--- a/Examples/example1/deliverables/GENEX_CR1/assets/GENEX_CR1_hdr.xlsx
+++ b/Examples/example1/deliverables/GENEX_CR1/assets/GENEX_CR1_hdr.xlsx
@@ -430,31 +430,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>24241</v>
+        <v>5258</v>
       </c>
       <c r="C2">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>23221</v>
+        <v>5258</v>
       </c>
       <c r="G2">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>95.79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -462,31 +462,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>22739</v>
+        <v>14475</v>
       </c>
       <c r="C3">
-        <v>1387</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>456</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>1062</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>19834</v>
+        <v>14462</v>
       </c>
       <c r="G3">
-        <v>6.1</v>
+        <v>0.02</v>
       </c>
       <c r="H3">
-        <v>2.01</v>
+        <v>0.05</v>
       </c>
       <c r="I3">
-        <v>4.67</v>
+        <v>0.02</v>
       </c>
       <c r="J3">
-        <v>87.22</v>
+        <v>99.91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -494,31 +494,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>33026</v>
+        <v>23157</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3584</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3971</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>1209</v>
       </c>
       <c r="F4">
-        <v>32955</v>
+        <v>14393</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>17.15</v>
       </c>
       <c r="I4">
-        <v>0.21</v>
+        <v>5.22</v>
       </c>
       <c r="J4">
-        <v>99.79</v>
+        <v>62.15</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -526,31 +526,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>28724</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3044</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1617</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3885</v>
       </c>
       <c r="F5">
-        <v>63</v>
+        <v>20178</v>
       </c>
       <c r="G5">
-        <v>7.35</v>
+        <v>10.6</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.63</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.53</v>
       </c>
       <c r="J5">
-        <v>92.65</v>
+        <v>70.25</v>
       </c>
     </row>
   </sheetData>
